--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aptech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F09453C9-2525-4753-A066-26C5A83B7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C58C6-2FBC-47C8-AE7E-900FE9E8E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A8932E2F-CBA1-4EFB-AF33-D5294B384CFA}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>fathername</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +393,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78360F8F-D55C-4169-9D9E-2D3AC035D8C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aptech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414C58C6-2FBC-47C8-AE7E-900FE9E8E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6523CCF-204C-4044-BA3D-55D124733CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A8932E2F-CBA1-4EFB-AF33-D5294B384CFA}"/>
   </bookViews>
@@ -20,28 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">name </t>
   </si>
   <si>
     <t>fathername</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>asddad</t>
   </si>
 </sst>
 </file>
@@ -393,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78360F8F-D55C-4169-9D9E-2D3AC035D8C6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +404,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
